--- a/Structure Chart.xlsx
+++ b/Structure Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\Yoobee\CS103_Oct21\1 BSE2021cs103_ZEBRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myacg-my.sharepoint.com/personal/200856629_yoobeestudent_ac_nz/Documents/Desktop/Assignment_CS103/GitCollab/BSE2021cs103_ZEBRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEEF81B-F579-4287-A944-DB802720E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5BEEF81B-F579-4287-A944-DB802720E902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{5601BC6E-F283-440E-BA00-45A3454DC1D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{898CD5D7-C689-4C5F-8CDC-62B7C0D2A10D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{898CD5D7-C689-4C5F-8CDC-62B7C0D2A10D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>Driver</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Form field type</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Home/accept</t>
+  </si>
+  <si>
+    <t>E-mail</t>
   </si>
 </sst>
 </file>
@@ -516,66 +519,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,662 +896,668 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5029011-DADB-4A7D-A810-F01BA72435D4}">
   <dimension ref="B1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.109375" customWidth="1"/>
-    <col min="26" max="26" width="3.6640625" customWidth="1"/>
-    <col min="37" max="38" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" customWidth="1"/>
+    <col min="37" max="38" width="3.7109375" customWidth="1"/>
     <col min="39" max="39" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="O1" s="4" t="s">
+    <row r="1" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="O2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="W4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="20"/>
+      <c r="AO4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP4" s="20"/>
+      <c r="AW4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX4" s="20"/>
+    </row>
+    <row r="5" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="W4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" s="13"/>
-      <c r="AO4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP4" s="13"/>
-      <c r="AW4" s="11" t="s">
+    </row>
+    <row r="6" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="R7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="AB7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="13"/>
+      <c r="AJ7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="25"/>
+      <c r="AN7" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AX4" s="13"/>
-    </row>
-    <row r="5" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="R7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
-      <c r="AB7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="7"/>
-      <c r="AJ7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="17"/>
-      <c r="AN7" s="5" t="s">
+      <c r="AO7" s="13"/>
+      <c r="AQ7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AO7" s="7"/>
-      <c r="AQ7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AW7" s="1" t="s">
+    </row>
+    <row r="8" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM8" s="3"/>
+    </row>
+    <row r="9" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM8" s="14"/>
-    </row>
-    <row r="9" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="K9" t="s">
+      <c r="AM9" s="3"/>
+    </row>
+    <row r="10" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14" t="s">
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AM9" s="14"/>
-    </row>
-    <row r="10" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14" t="s">
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AM10" s="14"/>
-    </row>
-    <row r="11" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14" t="s">
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AM11" s="14"/>
-    </row>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14" t="s">
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AM12" s="14"/>
-    </row>
-    <row r="13" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM13" s="14"/>
-    </row>
-    <row r="14" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="2:50" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="5" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5" t="s">
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="R14" s="15" t="s">
+      <c r="O14" s="13"/>
+      <c r="R14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="13"/>
+      <c r="V14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="12"/>
+      <c r="X14" s="13"/>
+      <c r="Z14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+      <c r="AD14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM14" s="8"/>
+    </row>
+    <row r="15" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="7"/>
-      <c r="V14" s="5" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" t="s">
         <v>75</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="7"/>
-      <c r="Z14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
-      <c r="AD14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG14" s="1" t="s">
+    </row>
+    <row r="16" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="J16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="s">
         <v>78</v>
       </c>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM14" s="25"/>
-    </row>
-    <row r="15" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="AA22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="AA23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="AA24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="J16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA16" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="AA25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA17" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="AA27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="14"/>
-      <c r="S18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="s">
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="Z32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="13"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="AA33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="AA34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="AA35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="AA36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="AA37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="AA22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="AA23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="AA24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="AA25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="AA27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="Z32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="AA33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="AA34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="AA35" t="s">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="AA36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" ht="18" x14ac:dyDescent="0.35">
-      <c r="B37" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="AA37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="AA38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AA39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>40</v>
       </c>
@@ -1556,10 +1565,10 @@
         <v>41</v>
       </c>
       <c r="AA40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -1567,57 +1576,57 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
         <v>63</v>
       </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
         <v>60</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
